--- a/gams/res_sum_Q_rB_reload.xlsx
+++ b/gams/res_sum_Q_rB_reload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04076C8D-354C-429F-911B-5B4051622F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE276FDA-1CF0-40B9-8AD6-87B010ADC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{5B5270C4-4CAF-405C-BE68-AB93F4B2E531}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{5B5270C4-4CAF-405C-BE68-AB93F4B2E531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rB_reload.xlsx
+++ b/gams/res_sum_Q_rB_reload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE276FDA-1CF0-40B9-8AD6-87B010ADC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1E8B5-3ED0-42E7-BC77-39A6F4222367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{5B5270C4-4CAF-405C-BE68-AB93F4B2E531}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{5B5270C4-4CAF-405C-BE68-AB93F4B2E531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rB_reload.xlsx
+++ b/gams/res_sum_Q_rB_reload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1E8B5-3ED0-42E7-BC77-39A6F4222367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D2C82D-E673-470D-BCE5-E1F3226942F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{5B5270C4-4CAF-405C-BE68-AB93F4B2E531}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{8F948C7A-0A51-49A5-932C-3A80B9AB1735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D3BBD2-B9C8-46F5-88D9-9B6F58851AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3450D87-F17C-4EAA-9E63-BBC91C7D9E14}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
